--- a/uscis_info.xlsx
+++ b/uscis_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e5a08a121ee7817e/Desktop/uscis_submissions_automator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="106" documentId="8_{C305A08E-EC84-4310-A0FC-4CC6E7C07961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D841ACF-48AF-4FB0-AA80-7F063551F347}"/>
+  <xr:revisionPtr revIDLastSave="131" documentId="8_{C305A08E-EC84-4310-A0FC-4CC6E7C07961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06D51E2E-9D7E-4D08-B715-F73AC2E60DCA}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{7D76871A-3EF8-411F-BBA3-8B211BA7DCD8}"/>
   </bookViews>
@@ -1499,7 +1499,7 @@
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="A2" sqref="A2:Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2176,7 +2176,7 @@
           <x14:formula1>
             <xm:f>'MASTER SHEET _ DO NOT EDIT'!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A1048576 B1:B1048576</xm:sqref>
+          <xm:sqref>B1:B1048576 A2:A1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{370A2958-90C2-4099-ADEE-7610D7FAA7CA}">
           <x14:formula1>
